--- a/static/output/Excel/compareLR1-sol1.xlsx
+++ b/static/output/Excel/compareLR1-sol1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B9B92-CA56-40D3-9070-02B03F1BC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B9F59-B2A7-6F4B-9819-88224B556D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="8140" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -539,7 +539,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,7 +557,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1239,7 +1239,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1963,7 +1963,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2579,7 +2579,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3294,7 +3294,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3473,19 +3473,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.2773186432174207E-2</c:v>
+                  <c:v>9.2644320297951582E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1018857098862168</c:v>
+                  <c:v>0.10174418604651163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1309197316866028E-2</c:v>
+                  <c:v>9.1182364729458912E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11043025792319858</c:v>
+                  <c:v>0.11027686532144533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10146903162640528</c:v>
+                  <c:v>0.10132808657156911</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.1417910447761194E-2</c:v>
@@ -3632,52 +3632,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.2773186432174207E-2</c:v>
+                  <c:v>9.2776810950701616E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1018857098862168</c:v>
+                  <c:v>0.1018896904182796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1309197316866028E-2</c:v>
+                  <c:v>9.1312764639388047E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11043025792319858</c:v>
+                  <c:v>0.11043457227879228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10146903162640528</c:v>
+                  <c:v>0.10147299587943173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1545070673884343E-2</c:v>
+                  <c:v>9.1548647211648224E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5333038757032917E-2</c:v>
+                  <c:v>9.5337880913771766E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7226815977718276E-2</c:v>
+                  <c:v>9.7229691776929278E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4199584336922553E-2</c:v>
+                  <c:v>8.4188982416732824E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10503441610853555</c:v>
+                  <c:v>0.10495926879733071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5388482165810334E-2</c:v>
+                  <c:v>9.5145328215535646E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4632496893869669E-2</c:v>
+                  <c:v>9.439127001907674E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9480483731164859E-2</c:v>
+                  <c:v>9.9226898895288962E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5772866606746892E-2</c:v>
+                  <c:v>8.555422373846476E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2035395092272834E-2</c:v>
+                  <c:v>9.1800788467094815E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17420874179038018</c:v>
+                  <c:v>0.17376466780181335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7166,9 +7166,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2148</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2064</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2131</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2033</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2144</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2073</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2137</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1858</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2076</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2027</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1809</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1879</v>
       </c>
@@ -8029,13 +8029,13 @@
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="18" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -8057,7 +8057,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -8132,7 +8132,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -8727,7 +8727,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -8912,7 +8912,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8955,7 +8955,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8975,7 +8975,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -8992,7 +8992,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9007,7 +9007,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9092,7 +9092,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9147,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9162,7 +9162,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9240,7 +9240,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9256,7 +9256,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -9344,7 +9344,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9360,7 +9360,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9455,7 +9455,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -9471,7 +9471,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9506,7 +9506,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -9554,7 +9554,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>-2.7622278611067426</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>6.3150920044034262E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -9646,7 +9646,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -9706,7 +9706,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -9757,13 +9757,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -9873,7 +9873,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>9.2687091725423415E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -10037,7 +10037,7 @@
         <v>0.10178695747398346</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -10119,7 +10119,7 @@
         <v>9.1225136156930745E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -10201,7 +10201,7 @@
         <v>0.11031963674891716</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -10283,7 +10283,7 @@
         <v>0.10137085799904094</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -10365,7 +10365,7 @@
         <v>9.1523832795277052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -10447,7 +10447,7 @@
         <v>9.5293669511178208E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -10529,7 +10529,7 @@
         <v>9.7176682326977556E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -10611,7 +10611,7 @@
         <v>8.4435144341872617E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -10693,7 +10693,7 @@
         <v>0.10498721201735624</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -10775,7 +10775,7 @@
         <v>9.5220154450587555E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -10857,7 +10857,7 @@
         <v>9.4716487164467442E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -10939,7 +10939,7 @@
         <v>9.8398261601542525E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -11021,7 +11021,7 @@
         <v>9.1356847238587904E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -11103,7 +11103,7 @@
         <v>9.5492518951464725E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -11185,7 +11185,7 @@
         <v>9.75599886655662E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11206,7 +11206,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11230,15 +11230,15 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -11258,7 +11258,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -11278,7 +11278,7 @@
       <c r="S26" s="20"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -11298,7 +11298,7 @@
       <c r="S27" s="20"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -11318,7 +11318,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -11338,7 +11338,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -11358,7 +11358,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -11378,7 +11378,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -11398,7 +11398,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -11418,7 +11418,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -11438,7 +11438,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -11458,7 +11458,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -11478,7 +11478,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -11498,7 +11498,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -11518,7 +11518,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -11538,7 +11538,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -11558,13 +11558,13 @@
       <c r="S40" s="20"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="19"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="20"/>
@@ -11573,7 +11573,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
         <f t="shared" ref="C60:O60" si="4">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
@@ -11653,9 +11653,9 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>4</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>0.9995385395455223</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>3</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>0.99957979461678315</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>4</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0.9995311442736764</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>4</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>0.99961229542869889</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>4</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>0.99957806978932506</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>0.99884268016011979</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>1</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>0.9972473094054648</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>3</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>1.0195933038023302</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>1</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>0.99203103432804052</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>2</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>1.0047868871215009</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>3</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1.0218687984532593</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>6</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>1.0052590178522891</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>4</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1.0586230383671098</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>0</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1.0380847176515093</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>1</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>0.92042669916310571</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>5</v>
       </c>
@@ -12648,13 +12648,13 @@
         <v>1.0146457087218534</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="19"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
@@ -12676,37 +12676,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O20">
         <f>IF(IBNR!O4&gt;0,'exposure-comparison'!O2/IBNR!O4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O21">
         <f>IF(IBNR!O5&gt;0,'exposure-comparison'!O3/IBNR!O5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O22">
         <f>IF(IBNR!O6&gt;0,'exposure-comparison'!O4/IBNR!O6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O23">
         <f>IF(IBNR!O7&gt;0,'exposure-comparison'!O5/IBNR!O7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>IF(IBNR!O8&gt;0,'exposure-comparison'!O6/IBNR!O8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M25" t="str">
         <f>IF(IBNR!M9&gt;0,'exposure-comparison'!M7/IBNR!M9,"")</f>
         <v/>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF(IBNR!L10&gt;0,'exposure-comparison'!L8/IBNR!L10)</f>
         <v>1</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF(IBNR!K11&gt;0,'exposure-comparison'!K9/IBNR!K11)</f>
         <v>1</v>
@@ -12760,7 +12760,7 @@
         <v>11.940803943538015</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF(IBNR!J12&gt;0,'exposure-comparison'!J10/IBNR!J12)</f>
         <v>1</v>
@@ -12786,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF(IBNR!I13&gt;0,'exposure-comparison'!I11/IBNR!I13)</f>
         <v>1</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF(IBNR!H14&gt;0,'exposure-comparison'!H12/IBNR!H14)</f>
         <v>1</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF(IBNR!G15&gt;0,'exposure-comparison'!G13/IBNR!G15)</f>
         <v>1</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF(IBNR!F16&gt;0,'exposure-comparison'!F14/IBNR!F16)</f>
         <v>1</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF(IBNR!E17&gt;0,'exposure-comparison'!E15/IBNR!E17)</f>
         <v>1</v>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF(IBNR!D18&gt;0,'exposure-comparison'!D16/IBNR!D18)</f>
         <v>1</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF(IBNR!C19&gt;0,'exposure-comparison'!C17/IBNR!C19)</f>
         <v>1</v>
@@ -13101,25 +13101,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB6850-F37A-41DA-93E0-33BDB581DD20}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="17.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31"/>
+    <col min="2" max="2" width="17.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="31" customWidth="1"/>
     <col min="5" max="5" width="11" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="31" customWidth="1"/>
     <col min="7" max="7" width="11" style="31" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="31"/>
-    <col min="12" max="12" width="11.140625" style="31" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="31"/>
+    <col min="8" max="11" width="9.1640625" style="31"/>
+    <col min="12" max="12" width="11.1640625" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -13209,7 +13209,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -13340,7 +13340,7 @@
       <c r="Q5" s="36"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -13401,7 +13401,7 @@
       <c r="Q6" s="36"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -13459,7 +13459,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="Q9" s="36"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -13615,7 +13615,7 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -13704,7 +13704,7 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -13781,7 +13781,7 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -13815,7 +13815,7 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -13871,7 +13871,7 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -13896,7 +13896,7 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -13918,7 +13918,7 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13933,7 +13933,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -13953,7 +13953,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -13970,7 +13970,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -13985,7 +13985,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -14054,11 +14054,11 @@
       </c>
       <c r="R24" s="47"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="R25" s="48"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="R26" s="56"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
         <v>52</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="R28" s="56"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -14244,7 +14244,7 @@
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="49"/>
@@ -14264,7 +14264,7 @@
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>1.0016313213703099</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1.0016313213703099</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -14417,7 +14417,7 @@
       <c r="Q36" s="48"/>
       <c r="R36" s="48"/>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="G37" s="49"/>
@@ -14433,7 +14433,7 @@
       <c r="Q37" s="48"/>
       <c r="R37" s="48"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="31" t="s">
         <v>52</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="51" t="s">
         <v>51</v>
       </c>
@@ -14555,7 +14555,7 @@
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="50"/>
@@ -14575,7 +14575,7 @@
       <c r="Q43" s="48"/>
       <c r="R43" s="48"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>1.0950054288816504</v>
       </c>
       <c r="H44" s="47">
-        <f t="shared" si="0"/>
+        <f>H24</f>
         <v>1.0419618528610355</v>
       </c>
       <c r="I44" s="47">
@@ -14645,12 +14645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
         <v>13</v>
       </c>
@@ -14677,32 +14677,32 @@
       </c>
       <c r="H47" s="45">
         <f>H56</f>
-        <v>1.0481716607406639</v>
+        <v>1.0462483182006135</v>
       </c>
       <c r="I47" s="45">
         <f>I56</f>
-        <v>1.021123526939161</v>
+        <v>1.0205214579569586</v>
       </c>
       <c r="J47" s="45">
         <f>J56</f>
-        <v>1.0092627778135288</v>
+        <v>1.0091058497490106</v>
       </c>
       <c r="K47" s="45">
         <f>K56</f>
-        <v>1.0040617768552533</v>
+        <v>1.0040404780121113</v>
       </c>
       <c r="L47" s="45">
         <f>L56</f>
-        <v>1.0017811105430787</v>
+        <v>1.0017928543756314</v>
       </c>
       <c r="M47" s="44">
         <f>B63</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="N47" s="43"/>
       <c r="O47" s="43"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
         <v>12</v>
       </c>
@@ -14721,7 +14721,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="33"/>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -14738,7 +14738,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="33"/>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -14755,7 +14755,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="33"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
         <v>11</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="33"/>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -14793,7 +14793,7 @@
       <c r="N52" s="13"/>
       <c r="O52" s="33"/>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>9</v>
       </c>
@@ -14806,7 +14806,10 @@
         <f>LN(G44-1)</f>
         <v>-2.3538212428917378</v>
       </c>
-      <c r="H53" s="42"/>
+      <c r="H53" s="42">
+        <f>LN(H44-1)</f>
+        <v>-3.1709943386349853</v>
+      </c>
       <c r="I53" s="42">
         <f>LN(I44-1)</f>
         <v>-3.738830384519332</v>
@@ -14827,7 +14830,7 @@
       <c r="N53" s="13"/>
       <c r="O53" s="33"/>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -14846,13 +14849,13 @@
       <c r="N54" s="13"/>
       <c r="O54" s="33"/>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="13">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.82438345658548107</v>
+        <v>-0.81255403175465257</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -14862,39 +14865,39 @@
       </c>
       <c r="G55" s="13">
         <f t="shared" ref="G55:L55" si="1">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.2086009256898365</v>
+        <v>-2.2611761471601874</v>
       </c>
       <c r="H55" s="13">
         <f t="shared" si="1"/>
-        <v>-3.032984382275318</v>
+        <v>-3.0737301789148397</v>
       </c>
       <c r="I55" s="13">
         <f t="shared" si="1"/>
-        <v>-3.8573678388607986</v>
+        <v>-3.8862842106694924</v>
       </c>
       <c r="J55" s="13">
         <f t="shared" si="1"/>
-        <v>-4.6817512954462792</v>
+        <v>-4.6988382424241451</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" si="1"/>
-        <v>-5.5061347520317607</v>
+        <v>-5.5113922741787977</v>
       </c>
       <c r="L55" s="13">
         <f t="shared" si="1"/>
-        <v>-6.3305182086172422</v>
+        <v>-6.3239463059334504</v>
       </c>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="33"/>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="13">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>1.0889329006520878</v>
+        <v>0.98903997985842285</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -14904,33 +14907,33 @@
       </c>
       <c r="G56" s="41">
         <f t="shared" ref="G56:L56" si="2">EXP(G55)+1</f>
-        <v>1.1098542352892597</v>
+        <v>1.1042278253753366</v>
       </c>
       <c r="H56" s="41">
         <f t="shared" si="2"/>
-        <v>1.0481716607406639</v>
+        <v>1.0462483182006135</v>
       </c>
       <c r="I56" s="41">
         <f t="shared" si="2"/>
-        <v>1.021123526939161</v>
+        <v>1.0205214579569586</v>
       </c>
       <c r="J56" s="41">
         <f t="shared" si="2"/>
-        <v>1.0092627778135288</v>
+        <v>1.0091058497490106</v>
       </c>
       <c r="K56" s="41">
         <f t="shared" si="2"/>
-        <v>1.0040617768552533</v>
+        <v>1.0040404780121113</v>
       </c>
       <c r="L56" s="41">
         <f t="shared" si="2"/>
-        <v>1.0017811105430787</v>
+        <v>1.0017928543756314</v>
       </c>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="33"/>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -14947,7 +14950,7 @@
       <c r="N57" s="13"/>
       <c r="O57" s="33"/>
     </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -14964,7 +14967,7 @@
       <c r="N58" s="13"/>
       <c r="O58" s="33"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
         <v>49</v>
       </c>
@@ -14983,13 +14986,13 @@
       <c r="N59" s="13"/>
       <c r="O59" s="33"/>
     </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="13">
         <f>EXP(B56)</f>
-        <v>2.9711019194419959</v>
+        <v>2.6886520728262147</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -15005,13 +15008,13 @@
       <c r="N60" s="13"/>
       <c r="O60" s="33"/>
     </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="13">
         <f>EXP(B55)</f>
-        <v>0.43850526667289524</v>
+        <v>0.4437233342830269</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -15027,13 +15030,13 @@
       <c r="N61" s="13"/>
       <c r="O61" s="33"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="40">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>1.390977167387969E-3</v>
+        <v>1.4301001110907214E-3</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -15049,13 +15052,13 @@
       <c r="N62" s="13"/>
       <c r="O62" s="33"/>
     </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="13">
         <f>1+B62</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>46</v>
@@ -15073,7 +15076,7 @@
       <c r="N63" s="13"/>
       <c r="O63" s="33"/>
     </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -15090,7 +15093,7 @@
       <c r="N64" s="13"/>
       <c r="O64" s="33"/>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -15107,7 +15110,7 @@
       <c r="N65" s="39"/>
       <c r="O65" s="33"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
         <v>45</v>
       </c>
@@ -15126,7 +15129,7 @@
       <c r="N66" s="13"/>
       <c r="O66" s="33"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="38">
@@ -15167,116 +15170,116 @@
       </c>
       <c r="O67" s="38"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="37">
         <f>PRODUCT(C47:$M47)</f>
-        <v>65.467645164824859</v>
+        <v>65.300762159921447</v>
       </c>
       <c r="D68" s="36">
         <f>PRODUCT(D47:$M47)</f>
-        <v>5.0452130218764113</v>
+        <v>5.0323523132416517</v>
       </c>
       <c r="E68" s="36">
         <f>PRODUCT(E47:$M47)</f>
-        <v>2.106665284707173</v>
+        <v>2.1012952025520484</v>
       </c>
       <c r="F68" s="36">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.4428248575685489</v>
+        <v>1.43914696527268</v>
       </c>
       <c r="G68" s="36">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.1914290136886572</v>
+        <v>1.1883919523519786</v>
       </c>
       <c r="H68" s="36">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.088057631737485</v>
+        <v>1.0852840734914946</v>
       </c>
       <c r="I68" s="36">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0380528996258458</v>
+        <v>1.037310220348088</v>
       </c>
       <c r="J68" s="36">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0165791623051046</v>
+        <v>1.0164511605907234</v>
       </c>
       <c r="K68" s="36">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0072492364252505</v>
+        <v>1.0072790290964417</v>
       </c>
       <c r="L68" s="36">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0031745651945647</v>
+        <v>1.0032255184479639</v>
       </c>
       <c r="M68" s="36">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0013909771673879</v>
+        <v>1.0014301001110908</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
       </c>
       <c r="O68" s="33"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="35">
         <f>1/C68</f>
-        <v>1.5274720779743128E-2</v>
+        <v>1.5313756944383005E-2</v>
       </c>
       <c r="D69" s="34">
         <f t="shared" ref="D69:N69" si="3">1/D68-1/C68</f>
-        <v>0.18293296552882843</v>
+        <v>0.18340047007201557</v>
       </c>
       <c r="E69" s="34">
         <f t="shared" si="3"/>
-        <v>0.27647616938471686</v>
+        <v>0.27718273347991246</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="3"/>
-        <v>0.21840095966344297</v>
+        <v>0.21895910641727667</v>
       </c>
       <c r="G69" s="34">
         <f t="shared" si="3"/>
-        <v>0.14624341025362697</v>
+        <v>0.14661715075746184</v>
       </c>
       <c r="H69" s="34">
         <f t="shared" si="3"/>
-        <v>7.9740738046586324E-2</v>
+        <v>7.994452393726037E-2</v>
       </c>
       <c r="I69" s="34">
         <f t="shared" si="3"/>
-        <v>4.4273078314556513E-2</v>
+        <v>4.2614020909591543E-2</v>
       </c>
       <c r="J69" s="34">
         <f t="shared" si="3"/>
-        <v>2.0349181575210928E-2</v>
+        <v>1.9783337283684088E-2</v>
       </c>
       <c r="K69" s="34">
         <f t="shared" si="3"/>
-        <v>9.1117132408319312E-3</v>
+        <v>8.9584724796012427E-3</v>
       </c>
       <c r="L69" s="34">
         <f t="shared" si="3"/>
-        <v>4.032543990470927E-3</v>
+        <v>4.0112797898071983E-3</v>
       </c>
       <c r="M69" s="34">
         <f t="shared" si="3"/>
-        <v>1.7754741845287247E-3</v>
+        <v>1.7870900835985637E-3</v>
       </c>
       <c r="N69" s="34">
         <f t="shared" si="3"/>
-        <v>1.3890450374562935E-3</v>
+        <v>1.4280578454074488E-3</v>
       </c>
       <c r="O69" s="33"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C70" s="32" t="s">
         <v>41</v>
       </c>
@@ -15285,7 +15288,7 @@
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C71" s="32" t="s">
         <v>40</v>
       </c>
@@ -15304,17 +15307,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA8834-A46F-4705-B471-2F5AF62DBC47}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P4:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
@@ -15341,7 +15344,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -15399,7 +15402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -15420,7 +15423,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -15471,31 +15474,31 @@
       </c>
       <c r="N4" s="26">
         <f>SUM($C4:M4)*(CL!M$47-1)</f>
-        <v>0.27680445631019146</v>
+        <v>0.28458992210706779</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="25">
-        <f>SUM(C4:N4)</f>
-        <v>199.2768044563102</v>
+        <f>SUM(C4:M4)</f>
+        <v>199</v>
       </c>
       <c r="Q4" s="24">
         <f>P4/Data!A1</f>
-        <v>9.2773186432174207E-2</v>
+        <v>9.2644320297951582E-2</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" ref="R4:R19" si="0">S4-P4</f>
-        <v>0</v>
+        <v>0.28458992210707379</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" ref="S4:S19" si="1">SUM(C4:O4)</f>
-        <v>199.2768044563102</v>
+        <v>199.28458992210707</v>
       </c>
       <c r="T4" s="24">
         <f>S4/Data!A1</f>
-        <v>9.2773186432174207E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.2776810950701616E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -15546,31 +15549,31 @@
       </c>
       <c r="N5" s="26">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>0.29210520515145832</v>
+        <v>0.30032102332906652</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="25">
-        <f>SUM(C5:N5)</f>
-        <v>210.29210520515147</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>210</v>
       </c>
       <c r="Q5" s="24">
         <f>P5/Data!A2</f>
-        <v>0.1018857098862168</v>
+        <v>0.10174418604651163</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30032102332907584</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="1"/>
-        <v>210.29210520515147</v>
+        <v>210.30032102332908</v>
       </c>
       <c r="T5" s="24">
         <f>S5/Data!A2</f>
-        <v>0.1018857098862168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1018896904182796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -15621,31 +15624,31 @@
       </c>
       <c r="N6" s="26">
         <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.25315784446459721</v>
+        <v>0.26027822021852431</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="25">
-        <f>SUM(C6:N6)</f>
-        <v>182.2531578444646</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="Q6" s="24">
         <f>P6/Data!A3</f>
-        <v>9.1309197316866028E-2</v>
+        <v>9.1182364729458912E-2</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26027822021853808</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="1"/>
-        <v>182.2531578444646</v>
+        <v>182.26027822021854</v>
       </c>
       <c r="T6" s="24">
         <f>S6/Data!A3</f>
-        <v>9.1309197316866028E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1312764639388047E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -15696,31 +15699,31 @@
       </c>
       <c r="N7" s="26">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>0.32687963433615574</v>
+        <v>0.33607352610633634</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="25">
-        <f>SUM(C7:N7)</f>
-        <v>235.32687963433617</v>
+        <f t="shared" si="2"/>
+        <v>235</v>
       </c>
       <c r="Q7" s="24">
         <f>P7/Data!A4</f>
-        <v>0.11043025792319858</v>
+        <v>0.11027686532144533</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33607352610633257</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="1"/>
-        <v>235.32687963433617</v>
+        <v>235.33607352610633</v>
       </c>
       <c r="T7" s="24">
         <f>S7/Data!A4</f>
-        <v>0.11043025792319858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.11043457227879228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -15771,31 +15774,31 @@
       </c>
       <c r="N8" s="26">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.28654129648190674</v>
+        <v>0.29460062288470334</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="25">
-        <f>SUM(C8:N8)</f>
-        <v>206.28654129648191</v>
+        <f t="shared" si="2"/>
+        <v>206</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/Data!A5</f>
-        <v>0.10146903162640528</v>
+        <v>0.10132808657156911</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29460062288470112</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="1"/>
-        <v>206.28654129648191</v>
+        <v>206.2946006228847</v>
       </c>
       <c r="T8" s="24">
         <f>S8/Data!A5</f>
-        <v>0.10146903162640528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10147299587943173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -15846,11 +15849,11 @@
       </c>
       <c r="N9" s="26">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>0.27263152480802777</v>
+        <v>0.28029962177379542</v>
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="25">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="Q9" s="24">
@@ -15859,18 +15862,18 @@
       </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>0.27263152480801978</v>
+        <v>0.28029962177379275</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="1"/>
-        <v>196.27263152480802</v>
+        <v>196.28029962177379</v>
       </c>
       <c r="T9" s="24">
         <f>S9/Data!A6</f>
-        <v>9.1545070673884343E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1548647211648224E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -15917,11 +15920,11 @@
       </c>
       <c r="M10" s="26">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>0.35087877698650849</v>
+        <v>0.35319231199937984</v>
       </c>
       <c r="N10" s="26">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.27451056634272492</v>
+        <v>0.28223482224951296</v>
       </c>
       <c r="O10" s="26"/>
       <c r="P10" s="25">
@@ -15934,18 +15937,18 @@
       </c>
       <c r="R10" s="20">
         <f t="shared" si="0"/>
-        <v>0.62538934332923191</v>
+        <v>0.63542713424888575</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="1"/>
-        <v>197.62538934332923</v>
+        <v>197.63542713424889</v>
       </c>
       <c r="T10" s="24">
         <f>S10/Data!A7</f>
-        <v>9.5333038757032917E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5337880913771766E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -15988,15 +15991,15 @@
       </c>
       <c r="L11" s="26">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>0.76767582564287928</v>
+        <v>0.76365034428903011</v>
       </c>
       <c r="M11" s="26">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>0.33799720814859791</v>
+        <v>0.34021859085553985</v>
       </c>
       <c r="N11" s="26">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>0.26443265058091292</v>
+        <v>0.27186756408293977</v>
       </c>
       <c r="O11" s="26"/>
       <c r="P11" s="25">
@@ -16009,18 +16012,18 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="0"/>
-        <v>1.3701056843723904</v>
+        <v>1.3757364992275143</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="1"/>
-        <v>190.37010568437239</v>
+        <v>190.37573649922751</v>
       </c>
       <c r="T11" s="24">
         <f>S11/Data!A8</f>
-        <v>9.7226815977718276E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.7229691776929278E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -16059,19 +16062,19 @@
       </c>
       <c r="K12" s="26">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>1.6395116729945975</v>
+        <v>1.6117354055748816</v>
       </c>
       <c r="L12" s="26">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>0.7255938339471264</v>
+        <v>0.72167678961126136</v>
       </c>
       <c r="M12" s="26">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>0.31946908047884148</v>
+        <v>0.3215186927510435</v>
       </c>
       <c r="N12" s="26">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>0.24993714058290953</v>
+        <v>0.25692453662084769</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="25">
@@ -16084,18 +16087,18 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="0"/>
-        <v>2.9345117280034856</v>
+        <v>2.9118554245580412</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="1"/>
-        <v>179.93451172800349</v>
+        <v>179.91185542455804</v>
       </c>
       <c r="T12" s="24">
         <f>S12/Data!A9</f>
-        <v>8.4199584336922553E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.4188982416732824E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -16130,23 +16133,23 @@
       </c>
       <c r="J13" s="26">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>3.9712230645622633</v>
+        <v>3.8580340959082147</v>
       </c>
       <c r="K13" s="26">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>1.7781867858384155</v>
+        <v>1.7470304316178988</v>
       </c>
       <c r="L13" s="26">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>0.78696686864934884</v>
+        <v>0.7822570062568529</v>
       </c>
       <c r="M13" s="26">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>0.34649079158663432</v>
+        <v>0.34850815997910478</v>
       </c>
       <c r="N13" s="26">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>0.27107761902237615</v>
+        <v>0.27849173167840685</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="25">
@@ -16159,18 +16162,18 @@
       </c>
       <c r="R13" s="20">
         <f t="shared" si="0"/>
-        <v>7.1539451296590357</v>
+        <v>7.0143214254404711</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="1"/>
-        <v>195.15394512965904</v>
+        <v>195.01432142544047</v>
       </c>
       <c r="T13" s="24">
         <f>S13/Data!A10</f>
-        <v>0.10503441610853555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10495926879733071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -16201,27 +16204,27 @@
       </c>
       <c r="I14" s="26">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>8.7672422548008342</v>
+        <v>8.4171939125116531</v>
       </c>
       <c r="J14" s="26">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>4.0296769808787332</v>
+        <v>3.9076384391576391</v>
       </c>
       <c r="K14" s="26">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>1.8043605816400143</v>
+        <v>1.7694927258959807</v>
       </c>
       <c r="L14" s="26">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>0.79855052807517235</v>
+        <v>0.79231480877570226</v>
       </c>
       <c r="M14" s="26">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>0.35159091903013395</v>
+        <v>0.35298907382358419</v>
       </c>
       <c r="N14" s="26">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>0.27506771179732048</v>
+        <v>0.28207241528743815</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="25">
@@ -16234,18 +16237,18 @@
       </c>
       <c r="R14" s="20">
         <f t="shared" si="0"/>
-        <v>16.026488976222254</v>
+        <v>15.521701375452011</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="1"/>
-        <v>198.02648897622225</v>
+        <v>197.52170137545201</v>
       </c>
       <c r="T14" s="24">
         <f>S14/Data!A11</f>
-        <v>9.5388482165810334E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5145328215535646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -16276,27 +16279,27 @@
       </c>
       <c r="I15" s="26">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>8.4924650347128026</v>
+        <v>8.1533876805171666</v>
       </c>
       <c r="J15" s="26">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>3.9033814586975972</v>
+        <v>3.7851677697937451</v>
       </c>
       <c r="K15" s="26">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>1.7478094826455755</v>
+        <v>1.7140344326200712</v>
       </c>
       <c r="L15" s="26">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>0.77352287538493525</v>
+        <v>0.76748259195509916</v>
       </c>
       <c r="M15" s="26">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>0.34057158449692942</v>
+        <v>0.34192591922972304</v>
       </c>
       <c r="N15" s="26">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>0.26644671799025921</v>
+        <v>0.27323188460702297</v>
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="25">
@@ -16309,18 +16312,18 @@
       </c>
       <c r="R15" s="20">
         <f t="shared" si="0"/>
-        <v>30.820071203873823</v>
+        <v>30.331104328668545</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="1"/>
-        <v>191.82007120387382</v>
+        <v>191.33110432866854</v>
       </c>
       <c r="T15" s="24">
         <f>S15/Data!A12</f>
-        <v>9.4632496893869669E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.439127001907674E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -16351,27 +16354,27 @@
       </c>
       <c r="I16" s="26">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>8.8790834099515354</v>
+        <v>8.5245696029446698</v>
       </c>
       <c r="J16" s="26">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>4.0810823960968285</v>
+        <v>3.9574870442543393</v>
       </c>
       <c r="K16" s="26">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>1.8273782838882333</v>
+        <v>1.7920656290670549</v>
       </c>
       <c r="L16" s="26">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>0.80873740450797804</v>
+        <v>0.8024221379541514</v>
       </c>
       <c r="M16" s="26">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>0.3560760619498809</v>
+        <v>0.35749205259668559</v>
       </c>
       <c r="N16" s="26">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>0.27857667045706624</v>
+        <v>0.28567073090882072</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="25">
@@ -16384,18 +16387,18 @@
       </c>
       <c r="R16" s="20">
         <f t="shared" si="0"/>
-        <v>61.552655202028348</v>
+        <v>61.041428172902556</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="1"/>
-        <v>200.55265520202835</v>
+        <v>200.04142817290256</v>
       </c>
       <c r="T16" s="24">
         <f>S16/Data!A13</f>
-        <v>9.9480483731164859E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9226898895288962E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -16426,27 +16429,27 @@
       </c>
       <c r="I17" s="26">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>7.6480216848565528</v>
+        <v>7.3426602912997874</v>
       </c>
       <c r="J17" s="26">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>3.5152509805294474</v>
+        <v>3.408791801423257</v>
       </c>
       <c r="K17" s="26">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>1.5740170574306438</v>
+        <v>1.5436004099735949</v>
       </c>
       <c r="L17" s="26">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>0.69660807556997406</v>
+        <v>0.69116840423011683</v>
       </c>
       <c r="M17" s="26">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>0.30670704593210696</v>
+        <v>0.30792671317390569</v>
       </c>
       <c r="N17" s="26">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>0.23995274266292871</v>
+        <v>0.24606323016075907</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="25">
@@ -16459,18 +16462,18 @@
       </c>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>90.746553345988247</v>
+        <v>90.306206609268031</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="1"/>
-        <v>172.74655334598825</v>
+        <v>172.30620660926803</v>
       </c>
       <c r="T17" s="24">
         <f>S17/Data!A14</f>
-        <v>8.5772866606746892E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.555422373846476E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -16501,27 +16504,27 @@
       </c>
       <c r="I18" s="26">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>7.3711146706280086</v>
+        <v>7.0768093011301048</v>
       </c>
       <c r="J18" s="26">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>3.3879765436368654</v>
+        <v>3.285371863725139</v>
       </c>
       <c r="K18" s="26">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>1.5170276317101419</v>
+        <v>1.4877122602924711</v>
       </c>
       <c r="L18" s="26">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>0.67138643391648378</v>
+        <v>0.66614371326677546</v>
       </c>
       <c r="M18" s="26">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>0.29560230070105187</v>
+        <v>0.29677780823355643</v>
       </c>
       <c r="N18" s="26">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.23126492766126555</v>
+        <v>0.23715417665870625</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="25">
@@ -16534,18 +16537,18 @@
       </c>
       <c r="R18" s="20">
         <f t="shared" si="0"/>
-        <v>133.49202972192157</v>
+        <v>133.06762633697451</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="1"/>
-        <v>166.49202972192157</v>
+        <v>166.06762633697451</v>
       </c>
       <c r="T18" s="24">
         <f>S18/Data!A15</f>
-        <v>9.2035395092272834E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.1800788467094815E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -16576,27 +16579,27 @@
       </c>
       <c r="I19" s="26">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>14.492270907259254</v>
+        <v>13.913640220475857</v>
       </c>
       <c r="J19" s="26">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>6.6610649938026407</v>
+        <v>6.4593350134567142</v>
       </c>
       <c r="K19" s="26">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>2.982612046471961</v>
+        <v>2.9249754035331779</v>
       </c>
       <c r="L19" s="26">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>1.3200057953985707</v>
+        <v>1.309698137555529</v>
       </c>
       <c r="M19" s="26">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>0.58118056956014896</v>
+        <v>0.58349172253711501</v>
       </c>
       <c r="N19" s="26">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>0.45468753815075669</v>
+        <v>0.46626632856780287</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="25">
@@ -16609,18 +16612,18 @@
       </c>
       <c r="R19" s="20">
         <f t="shared" si="0"/>
-        <v>322.33822582412438</v>
+        <v>321.50381079960727</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="1"/>
-        <v>327.33822582412438</v>
+        <v>326.50381079960727</v>
       </c>
       <c r="T19" s="59">
         <f>S19/Data!A16</f>
-        <v>0.17420874179038018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.17376466780181335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -16641,7 +16644,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16661,19 +16664,19 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="23">
         <f>SUM(R4:R19)</f>
-        <v>667.33260768433081</v>
+        <v>665.46538104276738</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -16693,7 +16696,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="58"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -16713,7 +16716,7 @@
       <c r="S26" s="20"/>
       <c r="T26" s="58"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -16733,7 +16736,7 @@
       <c r="S27" s="20"/>
       <c r="T27" s="58"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -16753,7 +16756,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="58"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -16773,7 +16776,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="58"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -16793,7 +16796,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="58"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -16813,7 +16816,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="58"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -16833,7 +16836,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="58"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -16853,7 +16856,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="58"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -16873,7 +16876,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="58"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -16893,7 +16896,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="58"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -16913,7 +16916,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="58"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -16933,7 +16936,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="58"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -16953,7 +16956,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="58"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -16973,7 +16976,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="58"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -16993,13 +16996,13 @@
       <c r="S40" s="20"/>
       <c r="T40" s="58"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="58"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="20"/>
@@ -17008,57 +17011,57 @@
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17084,13 +17087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5B5B38-5DB5-4B2A-A183-716AD456D35F}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>4</v>
       </c>
@@ -17155,9 +17158,9 @@
         <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="19" t="e">
+      <c r="R2" s="19">
         <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S2" s="30">
         <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
@@ -17165,10 +17168,10 @@
       </c>
       <c r="T2" s="19">
         <f>S2/'CL IBNR'!S4</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>3</v>
       </c>
@@ -17216,9 +17219,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="19" t="e">
+      <c r="R3" s="19">
         <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" si="1"/>
@@ -17226,10 +17229,10 @@
       </c>
       <c r="T3" s="19">
         <f>S3/'CL IBNR'!S5</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>4</v>
       </c>
@@ -17277,9 +17280,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="19" t="e">
+      <c r="R4" s="19">
         <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30">
         <f t="shared" si="1"/>
@@ -17287,10 +17290,10 @@
       </c>
       <c r="T4" s="19">
         <f>S4/'CL IBNR'!S6</f>
-        <v>0.99861095496254371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>4</v>
       </c>
@@ -17338,9 +17341,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="19" t="e">
+      <c r="R5" s="19">
         <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S5" s="30">
         <f t="shared" si="1"/>
@@ -17348,10 +17351,10 @@
       </c>
       <c r="T5" s="19">
         <f>S5/'CL IBNR'!S7</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>4</v>
       </c>
@@ -17399,9 +17402,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="19" t="e">
+      <c r="R6" s="19">
         <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S6" s="30">
         <f t="shared" si="1"/>
@@ -17409,10 +17412,10 @@
       </c>
       <c r="T6" s="19">
         <f>S6/'CL IBNR'!S8</f>
-        <v>0.9986109549625436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>2</v>
       </c>
@@ -17470,10 +17473,10 @@
       </c>
       <c r="T7" s="19">
         <f>S7/'CL IBNR'!S9</f>
-        <v>0.99861095496254371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99857194215459255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>1</v>
       </c>
@@ -17531,10 +17534,10 @@
       </c>
       <c r="T8" s="19">
         <f>S8/'CL IBNR'!S10</f>
-        <v>0.99683548077801498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.9967848520709941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>3</v>
       </c>
@@ -17584,7 +17587,7 @@
       </c>
       <c r="R9" s="19">
         <f>Q9/'CL IBNR'!R11</f>
-        <v>3.6493535185136969</v>
+        <v>3.6344169125465053</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" si="1"/>
@@ -17592,10 +17595,10 @@
       </c>
       <c r="T9" s="19">
         <f>S9/'CL IBNR'!S11</f>
-        <v>1.0190675647448864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0190374233997366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>1</v>
       </c>
@@ -17645,7 +17648,7 @@
       </c>
       <c r="R10" s="19">
         <f>Q10/'CL IBNR'!R12</f>
-        <v>0.68154438808827433</v>
+        <v>0.68684728751722213</v>
       </c>
       <c r="S10" s="30">
         <f t="shared" si="1"/>
@@ -17653,10 +17656,10 @@
       </c>
       <c r="T10" s="19">
         <f>S10/'CL IBNR'!S12</f>
-        <v>0.99480637861503673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99493165460160349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>2</v>
       </c>
@@ -17706,7 +17709,7 @@
       </c>
       <c r="R11" s="19">
         <f>Q11/'CL IBNR'!R13</f>
-        <v>1.1182640983411187</v>
+        <v>1.1405237249300466</v>
       </c>
       <c r="S11" s="30">
         <f t="shared" si="1"/>
@@ -17714,10 +17717,10 @@
       </c>
       <c r="T11" s="19">
         <f>S11/'CL IBNR'!S13</f>
-        <v>1.004335320353267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.005054390710153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>3</v>
       </c>
@@ -17767,7 +17770,7 @@
       </c>
       <c r="R12" s="19">
         <f>Q12/'CL IBNR'!R14</f>
-        <v>1.2479339691727276</v>
+        <v>1.2885185403470356</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="1"/>
@@ -17775,10 +17778,10 @@
       </c>
       <c r="T12" s="19">
         <f>S12/'CL IBNR'!S14</f>
-        <v>1.020065553069796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0226724384883441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>6</v>
       </c>
@@ -17828,7 +17831,7 @@
       </c>
       <c r="R13" s="19">
         <f>Q13/'CL IBNR'!R15</f>
-        <v>1.0382844279729591</v>
+        <v>1.0550225818765866</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="1"/>
@@ -17836,10 +17839,10 @@
       </c>
       <c r="T13" s="19">
         <f>S13/'CL IBNR'!S15</f>
-        <v>1.0061512269739077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0087225528603265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>4</v>
       </c>
@@ -17889,7 +17892,7 @@
       </c>
       <c r="R14" s="19">
         <f>Q14/'CL IBNR'!R16</f>
-        <v>1.1534839523488229</v>
+        <v>1.1631444762217775</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="1"/>
@@ -17897,10 +17900,10 @@
       </c>
       <c r="T14" s="19">
         <f>S14/'CL IBNR'!S16</f>
-        <v>1.0471065555749177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0497825471356359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>0</v>
       </c>
@@ -17950,7 +17953,7 @@
       </c>
       <c r="R15" s="19">
         <f>Q15/'CL IBNR'!R17</f>
-        <v>1.2011475475483577</v>
+        <v>1.2070045248563619</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="1"/>
@@ -17958,10 +17961,10 @@
       </c>
       <c r="T15" s="19">
         <f>S15/'CL IBNR'!S17</f>
-        <v>1.1056660541148542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.1084917006682362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>1</v>
       </c>
@@ -18011,7 +18014,7 @@
       </c>
       <c r="R16" s="19">
         <f>Q16/'CL IBNR'!R18</f>
-        <v>0.94387657647030854</v>
+        <v>0.94688695867260175</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="1"/>
@@ -18019,10 +18022,10 @@
       </c>
       <c r="T16" s="19">
         <f>S16/'CL IBNR'!S18</f>
-        <v>0.95500067039584469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.95744127562446568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>5</v>
       </c>
@@ -18072,7 +18075,7 @@
       </c>
       <c r="R17" s="19">
         <f>Q17/'CL IBNR'!R19</f>
-        <v>0.56152198374001727</v>
+        <v>0.56297933001116729</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="1"/>
@@ -18080,7 +18083,7 @@
       </c>
       <c r="T17" s="61">
         <f>S17/'CL IBNR'!S19</f>
-        <v>0.56821961300644419</v>
+        <v>0.56967175833104777</v>
       </c>
       <c r="U17" s="60" t="s">
         <v>55</v>
@@ -18092,13 +18095,13 @@
       <c r="Z17" s="60"/>
       <c r="AA17" s="60"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="19"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
@@ -18109,48 +18112,48 @@
       </c>
       <c r="R19" s="19">
         <f>Q19/'CL IBNR'!R21</f>
-        <v>0.83017073288596044</v>
+        <v>0.83250010561315158</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="18">
         <f>AVERAGE(T2:T17)</f>
-        <v>0.98180750921263926</v>
+        <v>0.98275139042613113</v>
       </c>
       <c r="U19" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="O20" t="str">
         <f>IF('CL IBNR'!O4&gt;0,'CL-comparison'!O2/'CL IBNR'!O4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="O21" t="str">
         <f>IF('CL IBNR'!O5&gt;0,'CL-comparison'!O3/'CL IBNR'!O5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="O22" t="str">
         <f>IF('CL IBNR'!O6&gt;0,'CL-comparison'!O4/'CL IBNR'!O6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="O23" t="str">
         <f>IF('CL IBNR'!O7&gt;0,'CL-comparison'!O5/'CL IBNR'!O7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="O24" t="str">
         <f>IF('CL IBNR'!O8&gt;0,'CL-comparison'!O6/'CL IBNR'!O8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="M25" t="str">
         <f>IF('CL IBNR'!M9&gt;0,'CL-comparison'!M7/'CL IBNR'!M9,"")</f>
         <v/>
@@ -18164,7 +18167,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF('CL IBNR'!L10&gt;0,'CL-comparison'!L8/'CL IBNR'!L10,"")</f>
         <v>1</v>
@@ -18182,18 +18185,18 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF('CL IBNR'!K11&gt;0,'CL-comparison'!K9/'CL IBNR'!K11,"")</f>
         <v>1</v>
       </c>
       <c r="L27">
         <f>IF('CL IBNR'!L11&gt;0,'CL-comparison'!L9/'CL IBNR'!L11,"")</f>
-        <v>2.6052663548772403</v>
+        <v>2.6189996704080976</v>
       </c>
       <c r="M27">
         <f>IF('CL IBNR'!M11&gt;0,'CL-comparison'!M9/'CL IBNR'!M11,"")</f>
-        <v>5.9172086389563168</v>
+        <v>5.8785735223070734</v>
       </c>
       <c r="N27">
         <f>IF('CL IBNR'!N11&gt;0,'CL-comparison'!N9/'CL IBNR'!N11,"")</f>
@@ -18204,14 +18207,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF('CL IBNR'!J12&gt;0,'CL-comparison'!J10/'CL IBNR'!J12,"")</f>
         <v>1</v>
       </c>
       <c r="K28">
         <f>IF('CL IBNR'!K12&gt;0,'CL-comparison'!K10/'CL IBNR'!K12,"")</f>
-        <v>1.2198754256790159</v>
+        <v>1.2408984707304549</v>
       </c>
       <c r="L28">
         <f>IF('CL IBNR'!L12&gt;0,'CL-comparison'!L10/'CL IBNR'!L12,"")</f>
@@ -18230,26 +18233,26 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF('CL IBNR'!I13&gt;0,'CL-comparison'!I11/'CL IBNR'!I13,"")</f>
         <v>1</v>
       </c>
       <c r="J29">
         <f>IF('CL IBNR'!J13&gt;0,'CL-comparison'!J11/'CL IBNR'!J13,"")</f>
-        <v>1.2590579573880309</v>
+        <v>1.2959968408011067</v>
       </c>
       <c r="K29">
         <f>IF('CL IBNR'!K13&gt;0,'CL-comparison'!K11/'CL IBNR'!K13,"")</f>
-        <v>0.56237061706006308</v>
+        <v>0.57239987461117947</v>
       </c>
       <c r="L29">
         <f>IF('CL IBNR'!L13&gt;0,'CL-comparison'!L11/'CL IBNR'!L13,"")</f>
-        <v>1.2707015248510709</v>
+        <v>1.2783522448524436</v>
       </c>
       <c r="M29">
         <f>IF('CL IBNR'!M13&gt;0,'CL-comparison'!M11/'CL IBNR'!M13,"")</f>
-        <v>2.8860795850326846</v>
+        <v>2.8693732739570752</v>
       </c>
       <c r="N29">
         <f>IF('CL IBNR'!N13&gt;0,'CL-comparison'!N11/'CL IBNR'!N13,"")</f>
@@ -18260,30 +18263,30 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF('CL IBNR'!H14&gt;0,'CL-comparison'!H12/'CL IBNR'!H14,"")</f>
         <v>1</v>
       </c>
       <c r="I30">
         <f>IF('CL IBNR'!I14&gt;0,'CL-comparison'!I12/'CL IBNR'!I14,"")</f>
-        <v>1.1406095222844017</v>
+        <v>1.1880443891325352</v>
       </c>
       <c r="J30">
         <f>IF('CL IBNR'!J14&gt;0,'CL-comparison'!J12/'CL IBNR'!J14,"")</f>
-        <v>1.4889530918906575</v>
+        <v>1.5354542374942464</v>
       </c>
       <c r="K30">
         <f>IF('CL IBNR'!K14&gt;0,'CL-comparison'!K12/'CL IBNR'!K14,"")</f>
-        <v>0.55421294954863332</v>
+        <v>0.56513371621443154</v>
       </c>
       <c r="L30">
         <f>IF('CL IBNR'!L14&gt;0,'CL-comparison'!L12/'CL IBNR'!L14,"")</f>
-        <v>2.5045378215712959</v>
+        <v>2.5242491719805571</v>
       </c>
       <c r="M30">
         <f>IF('CL IBNR'!M14&gt;0,'CL-comparison'!M12/'CL IBNR'!M14,"")</f>
-        <v>2.8442145285165701</v>
+        <v>2.8329488762016952</v>
       </c>
       <c r="N30">
         <f>IF('CL IBNR'!N14&gt;0,'CL-comparison'!N12/'CL IBNR'!N14,"")</f>
@@ -18294,7 +18297,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF('CL IBNR'!G15&gt;0,'CL-comparison'!G13/'CL IBNR'!G15,"")</f>
         <v>1</v>
@@ -18305,23 +18308,23 @@
       </c>
       <c r="I31">
         <f>IF('CL IBNR'!I15&gt;0,'CL-comparison'!I13/'CL IBNR'!I15,"")</f>
-        <v>0.94201153225831835</v>
+        <v>0.9811872455318551</v>
       </c>
       <c r="J31">
         <f>IF('CL IBNR'!J15&gt;0,'CL-comparison'!J13/'CL IBNR'!J15,"")</f>
-        <v>1.0247525235042338</v>
+        <v>1.0567563297776787</v>
       </c>
       <c r="K31">
         <f>IF('CL IBNR'!K15&gt;0,'CL-comparison'!K13/'CL IBNR'!K15,"")</f>
-        <v>1.1442894776910673</v>
+        <v>1.1668377028708823</v>
       </c>
       <c r="L31">
         <f>IF('CL IBNR'!L15&gt;0,'CL-comparison'!L13/'CL IBNR'!L15,"")</f>
-        <v>2.5855731790798324</v>
+        <v>2.6059222983874637</v>
       </c>
       <c r="M31">
         <f>IF('CL IBNR'!M15&gt;0,'CL-comparison'!M13/'CL IBNR'!M15,"")</f>
-        <v>2.9362402664248579</v>
+        <v>2.924610109267995</v>
       </c>
       <c r="N31">
         <f>IF('CL IBNR'!N15&gt;0,'CL-comparison'!N13/'CL IBNR'!N15,"")</f>
@@ -18332,7 +18335,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF('CL IBNR'!F16&gt;0,'CL-comparison'!F14/'CL IBNR'!F16,"")</f>
         <v>1</v>
@@ -18347,34 +18350,34 @@
       </c>
       <c r="I32">
         <f>IF('CL IBNR'!I16&gt;0,'CL-comparison'!I14/'CL IBNR'!I16,"")</f>
-        <v>1.8019878022620504</v>
+        <v>1.8769276040016223</v>
       </c>
       <c r="J32">
         <f>IF('CL IBNR'!J16&gt;0,'CL-comparison'!J14/'CL IBNR'!J16,"")</f>
-        <v>0.73509910088294661</v>
+        <v>0.75805680889228366</v>
       </c>
       <c r="K32">
         <f>IF('CL IBNR'!K16&gt;0,'CL-comparison'!K14/'CL IBNR'!K16,"")</f>
-        <v>0.54723206947180858</v>
+        <v>0.55801527788945859</v>
       </c>
       <c r="L32">
         <f>IF('CL IBNR'!L16&gt;0,'CL-comparison'!L14/'CL IBNR'!L16,"")</f>
-        <v>2.4729906009686364</v>
+        <v>2.4924536667185961</v>
       </c>
       <c r="M32">
         <f>IF('CL IBNR'!M16&gt;0,'CL-comparison'!M14/'CL IBNR'!M16,"")</f>
-        <v>2.808388731677093</v>
+        <v>2.7972649817985666</v>
       </c>
       <c r="N32">
         <f>IF('CL IBNR'!N16&gt;0,'CL-comparison'!N14/'CL IBNR'!N16,"")</f>
-        <v>3.589676042718438</v>
+        <v>3.5005336277141255</v>
       </c>
       <c r="O32" t="str">
         <f>IF('CL IBNR'!O16&gt;0,'CL-comparison'!O14/'CL IBNR'!O16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF('CL IBNR'!E17&gt;0,'CL-comparison'!E15/'CL IBNR'!E17,"")</f>
         <v>1</v>
@@ -18393,11 +18396,11 @@
       </c>
       <c r="I33">
         <f>IF('CL IBNR'!I17&gt;0,'CL-comparison'!I15/'CL IBNR'!I17,"")</f>
-        <v>0.52301106937499808</v>
+        <v>0.54476168599813102</v>
       </c>
       <c r="J33">
         <f>IF('CL IBNR'!J17&gt;0,'CL-comparison'!J15/'CL IBNR'!J17,"")</f>
-        <v>0.28447470907166511</v>
+        <v>0.2933590721447038</v>
       </c>
       <c r="K33">
         <f>IF('CL IBNR'!K17&gt;0,'CL-comparison'!K15/'CL IBNR'!K17,"")</f>
@@ -18420,7 +18423,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF('CL IBNR'!D18&gt;0,'CL-comparison'!D16/'CL IBNR'!D18,"")</f>
         <v>1</v>
@@ -18443,23 +18446,23 @@
       </c>
       <c r="I34">
         <f>IF('CL IBNR'!I18&gt;0,'CL-comparison'!I16/'CL IBNR'!I18,"")</f>
-        <v>1.763640993376707</v>
+        <v>1.8369860549900665</v>
       </c>
       <c r="J34">
         <f>IF('CL IBNR'!J18&gt;0,'CL-comparison'!J16/'CL IBNR'!J18,"")</f>
-        <v>0.29516142957900693</v>
+        <v>0.30437954711955922</v>
       </c>
       <c r="K34">
         <f>IF('CL IBNR'!K18&gt;0,'CL-comparison'!K16/'CL IBNR'!K18,"")</f>
-        <v>3.295918871539282</v>
+        <v>3.3608649558463974</v>
       </c>
       <c r="L34">
         <f>IF('CL IBNR'!L18&gt;0,'CL-comparison'!L16/'CL IBNR'!L18,"")</f>
-        <v>1.4894551773508038</v>
+        <v>1.5011775688702216</v>
       </c>
       <c r="M34">
         <f>IF('CL IBNR'!M18&gt;0,'CL-comparison'!M16/'CL IBNR'!M18,"")</f>
-        <v>3.3829236025172844</v>
+        <v>3.3695241768650908</v>
       </c>
       <c r="N34">
         <f>IF('CL IBNR'!N18&gt;0,'CL-comparison'!N16/'CL IBNR'!N18,"")</f>
@@ -18470,7 +18473,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF('CL IBNR'!C19&gt;0,'CL-comparison'!C17/'CL IBNR'!C19,"")</f>
         <v>1</v>
@@ -18497,23 +18500,23 @@
       </c>
       <c r="I35">
         <f>IF('CL IBNR'!I19&gt;0,'CL-comparison'!I17/'CL IBNR'!I19,"")</f>
-        <v>0.62102068458379789</v>
+        <v>0.6468472561734957</v>
       </c>
       <c r="J35">
         <f>IF('CL IBNR'!J19&gt;0,'CL-comparison'!J17/'CL IBNR'!J19,"")</f>
-        <v>0.45037843089523327</v>
+        <v>0.4644440942837163</v>
       </c>
       <c r="K35">
         <f>IF('CL IBNR'!K19&gt;0,'CL-comparison'!K17/'CL IBNR'!K19,"")</f>
-        <v>1.6763829563131902</v>
+        <v>1.7094160839644426</v>
       </c>
       <c r="L35">
         <f>IF('CL IBNR'!L19&gt;0,'CL-comparison'!L17/'CL IBNR'!L19,"")</f>
-        <v>1.5151448629785051</v>
+        <v>1.5270694388654145</v>
       </c>
       <c r="M35">
         <f>IF('CL IBNR'!M19&gt;0,'CL-comparison'!M17/'CL IBNR'!M19,"")</f>
-        <v>3.4412712756616188</v>
+        <v>3.4276407406495522</v>
       </c>
       <c r="N35">
         <f>IF('CL IBNR'!N19&gt;0,'CL-comparison'!N17/'CL IBNR'!N19,"")</f>

--- a/static/output/Excel/compareLR1-sol1.xlsx
+++ b/static/output/Excel/compareLR1-sol1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B9F59-B2A7-6F4B-9819-88224B556D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23F2C8-6470-4048-A757-3207040EEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="8140" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -13101,7 +13101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB6850-F37A-41DA-93E0-33BDB581DD20}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -14803,27 +14803,27 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="42">
-        <f>LN(G44-1)</f>
+        <f t="shared" ref="G53:L53" si="1">LN(G44-1)</f>
         <v>-2.3538212428917378</v>
       </c>
       <c r="H53" s="42">
-        <f>LN(H44-1)</f>
+        <f t="shared" si="1"/>
         <v>-3.1709943386349853</v>
       </c>
       <c r="I53" s="42">
-        <f>LN(I44-1)</f>
+        <f t="shared" si="1"/>
         <v>-3.738830384519332</v>
       </c>
       <c r="J53" s="42">
-        <f>LN(J44-1)</f>
+        <f t="shared" si="1"/>
         <v>-4.4257916626406422</v>
       </c>
       <c r="K53" s="42">
-        <f>LN(K44-1)</f>
+        <f t="shared" si="1"/>
         <v>-5.6475647946579421</v>
       </c>
       <c r="L53" s="42">
-        <f>LN(L44-1)</f>
+        <f t="shared" si="1"/>
         <v>-6.4183649359362693</v>
       </c>
       <c r="M53" s="42"/>
@@ -14864,27 +14864,27 @@
         <v>6</v>
       </c>
       <c r="G55" s="13">
-        <f t="shared" ref="G55:L55" si="1">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
+        <f t="shared" ref="G55:L55" si="2">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
         <v>-2.2611761471601874</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.0737301789148397</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8862842106694924</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6988382424241451</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5113922741787977</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.3239463059334504</v>
       </c>
       <c r="M55" s="13"/>
@@ -14906,27 +14906,27 @@
         <v>4</v>
       </c>
       <c r="G56" s="41">
-        <f t="shared" ref="G56:L56" si="2">EXP(G55)+1</f>
+        <f t="shared" ref="G56:L56" si="3">EXP(G55)+1</f>
         <v>1.1042278253753366</v>
       </c>
       <c r="H56" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0462483182006135</v>
       </c>
       <c r="I56" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0205214579569586</v>
       </c>
       <c r="J56" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0091058497490106</v>
       </c>
       <c r="K56" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0040404780121113</v>
       </c>
       <c r="L56" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0017928543756314</v>
       </c>
       <c r="M56" s="13"/>
@@ -15234,47 +15234,47 @@
         <v>1.5313756944383005E-2</v>
       </c>
       <c r="D69" s="34">
-        <f t="shared" ref="D69:N69" si="3">1/D68-1/C68</f>
+        <f t="shared" ref="D69:N69" si="4">1/D68-1/C68</f>
         <v>0.18340047007201557</v>
       </c>
       <c r="E69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27718273347991246</v>
       </c>
       <c r="F69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21895910641727667</v>
       </c>
       <c r="G69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14661715075746184</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.994452393726037E-2</v>
       </c>
       <c r="I69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2614020909591543E-2</v>
       </c>
       <c r="J69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9783337283684088E-2</v>
       </c>
       <c r="K69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9584724796012427E-3</v>
       </c>
       <c r="L69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0112797898071983E-3</v>
       </c>
       <c r="M69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7870900835985637E-3</v>
       </c>
       <c r="N69" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4280578454074488E-3</v>
       </c>
       <c r="O69" s="33"/>
@@ -15307,8 +15307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA8834-A46F-4705-B471-2F5AF62DBC47}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P4:P9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17087,8 +17087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5B5B38-5DB5-4B2A-A183-716AD456D35F}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18532,10 +18532,10 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/static/output/Excel/compareLR1-sol1.xlsx
+++ b/static/output/Excel/compareLR1-sol1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23F2C8-6470-4048-A757-3207040EEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37335E98-0722-F348-99B1-34530D7572CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
